--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl21b-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ccl21b</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03355466666666667</v>
+        <v>0.08844</v>
       </c>
       <c r="H2">
-        <v>0.100664</v>
+        <v>0.26532</v>
       </c>
       <c r="I2">
-        <v>0.1494171833323191</v>
+        <v>0.939488472392877</v>
       </c>
       <c r="J2">
-        <v>0.1494171833323191</v>
+        <v>0.9394884723928769</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.00879199376</v>
+        <v>0.0231730488</v>
       </c>
       <c r="R2">
-        <v>0.07912794384000001</v>
+        <v>0.2085574392</v>
       </c>
       <c r="S2">
-        <v>0.1494171833323191</v>
+        <v>0.939488472392877</v>
       </c>
       <c r="T2">
-        <v>0.1494171833323191</v>
+        <v>0.9394884723928769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +578,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H3">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I3">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J3">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,140 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0231730488</v>
+        <v>0.00149255326</v>
       </c>
       <c r="R3">
-        <v>0.2085574392</v>
+        <v>0.01343297934</v>
       </c>
       <c r="S3">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="T3">
-        <v>0.3938187145526791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.063403</v>
-      </c>
-      <c r="H4">
-        <v>0.190209</v>
-      </c>
-      <c r="I4">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J4">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.26202</v>
-      </c>
-      <c r="N4">
-        <v>0.78606</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.01661285406</v>
-      </c>
-      <c r="R4">
-        <v>0.14951568654</v>
-      </c>
-      <c r="S4">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="T4">
-        <v>0.2823302573358607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.117518</v>
-      </c>
-      <c r="I5">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J5">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.26202</v>
-      </c>
-      <c r="N5">
-        <v>0.78606</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.01026402212</v>
-      </c>
-      <c r="R5">
-        <v>0.09237619908000001</v>
-      </c>
-      <c r="S5">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="T5">
-        <v>0.1744338447791412</v>
+        <v>0.060511527607123</v>
       </c>
     </row>
   </sheetData>
